--- a/contohpattern.xlsx
+++ b/contohpattern.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamal\Desktop\TA NOPAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project(s)\Perjokian duniawi\TA NOPAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BF20B8-6606-4F70-BED4-B5BDDA160492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B68ED7-CE20-4530-871F-A7AB55D2A73E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-2400" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>namapattern</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>please open</t>
+  </si>
+  <si>
+    <t>Dear Sir</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,6 +509,11 @@
         <v>14</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/contohpattern.xlsx
+++ b/contohpattern.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project(s)\Perjokian duniawi\TA NOPAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\cobarev2\bayer-moore-phising-detector-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B68ED7-CE20-4530-871F-A7AB55D2A73E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="-2400" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>namapattern</t>
   </si>
   <si>
-    <t>urgentresponse</t>
-  </si>
-  <si>
     <t>immediately</t>
   </si>
   <si>
@@ -75,19 +71,58 @@
     <t>account alert</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>please open</t>
-  </si>
-  <si>
-    <t>Dear Sir</t>
+    <t>please login</t>
+  </si>
+  <si>
+    <t>tinyurl</t>
+  </si>
+  <si>
+    <t>bitly</t>
+  </si>
+  <si>
+    <t>.org</t>
+  </si>
+  <si>
+    <t>dear user</t>
+  </si>
+  <si>
+    <t>dear customer</t>
+  </si>
+  <si>
+    <t>terminating</t>
+  </si>
+  <si>
+    <t>click here to activate your account</t>
+  </si>
+  <si>
+    <t>please open this link below</t>
+  </si>
+  <si>
+    <t>please login at this link below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dear sir </t>
+  </si>
+  <si>
+    <t>dear madam</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>confidential</t>
+  </si>
+  <si>
+    <t>verifiy your account</t>
+  </si>
+  <si>
+    <t>urgent response</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,111 +442,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
